--- a/Tests/baseline_short_sma_5_25_AAPL.xlsx
+++ b/Tests/baseline_short_sma_5_25_AAPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062562B1-9CB0-4FF5-9DFF-6B13FFEF2A99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532115C4-1926-4A68-83AB-0FA36860391C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="20">
   <si>
     <t>Symbol</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +475,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -528,8 +531,12 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>ROUND(F2,2)</f>
+        <v>47.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -581,8 +588,12 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R49" si="0">ROUND(F3,2)</f>
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -634,8 +645,12 @@
       <c r="Q4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -687,8 +702,12 @@
       <c r="Q5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>55.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -740,8 +759,12 @@
       <c r="Q6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -793,8 +816,12 @@
       <c r="Q7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>84.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -846,8 +873,12 @@
       <c r="Q8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>86.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -899,8 +930,12 @@
       <c r="Q9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>83.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -952,8 +987,12 @@
       <c r="Q10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>74.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1005,8 +1044,12 @@
       <c r="Q11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1058,8 +1101,12 @@
       <c r="Q12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>62.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1111,8 +1158,12 @@
       <c r="Q13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>60.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1164,8 +1215,12 @@
       <c r="Q14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>68.959999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1217,8 +1272,12 @@
       <c r="Q15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>77.989999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1270,8 +1329,12 @@
       <c r="Q16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>78.790000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1386,12 @@
       <c r="Q17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1376,8 +1443,12 @@
       <c r="Q18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1429,8 +1500,12 @@
       <c r="Q19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>75.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1482,8 +1557,12 @@
       <c r="Q20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>77.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1535,8 +1614,12 @@
       <c r="Q21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1588,8 +1671,12 @@
       <c r="Q22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>93.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1728,12 @@
       <c r="Q23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1785,12 @@
       <c r="Q24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>101.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1747,8 +1842,12 @@
       <c r="Q25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>104.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1800,8 +1899,12 @@
       <c r="Q26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1853,8 +1956,12 @@
       <c r="Q27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1906,8 +2013,12 @@
       <c r="Q28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>130.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1959,8 +2070,12 @@
       <c r="Q29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>129.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2012,8 +2127,12 @@
       <c r="Q30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>115.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2065,8 +2184,12 @@
       <c r="Q31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>113.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2118,8 +2241,12 @@
       <c r="Q32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>118.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2171,8 +2298,12 @@
       <c r="Q33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>116.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2224,8 +2355,12 @@
       <c r="Q34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>96.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2277,8 +2412,12 @@
       <c r="Q35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>96.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2330,8 +2469,12 @@
       <c r="Q36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>99.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2383,8 +2526,12 @@
       <c r="Q37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>97.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2436,8 +2583,12 @@
       <c r="Q38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>115.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2489,8 +2640,12 @@
       <c r="Q39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>111.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2542,8 +2697,12 @@
       <c r="Q40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>112.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2595,8 +2754,12 @@
       <c r="Q41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>144.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2648,8 +2811,12 @@
       <c r="Q42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>147.77000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2701,8 +2868,12 @@
       <c r="Q43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>156.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2754,8 +2925,12 @@
       <c r="Q44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>173.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2807,8 +2982,12 @@
       <c r="Q45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>175.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2860,8 +3039,12 @@
       <c r="Q46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>173.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2913,8 +3096,12 @@
       <c r="Q47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>174.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2966,8 +3153,12 @@
       <c r="Q48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>183.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3018,6 +3209,10 @@
       </c>
       <c r="Q49" t="s">
         <v>18</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>187.88</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3225,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,7 +3369,7 @@
         <v>40829</v>
       </c>
       <c r="F4">
-        <v>58.349989999999998</v>
+        <v>58.35</v>
       </c>
       <c r="G4" s="2">
         <v>9.0499999999999997E-2</v>
@@ -3334,7 +3529,7 @@
         <v>41123</v>
       </c>
       <c r="F8">
-        <v>86.829989999999995</v>
+        <v>86.83</v>
       </c>
       <c r="G8" s="2">
         <v>5.7200000000000001E-2</v>
